--- a/SOR/ExportedExcelFiles/AgentRegistration.xlsx
+++ b/SOR/ExportedExcelFiles/AgentRegistration.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25200" windowHeight="11400"/>
+    <workbookView windowWidth="25200" windowHeight="11850"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$1:$AK$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$1:$AL$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="86">
   <si>
     <t>BCID</t>
   </si>
@@ -44,6 +44,9 @@
     <t>MATM</t>
   </si>
   <si>
+    <t>DMT</t>
+  </si>
+  <si>
     <t>PANNo</t>
   </si>
   <si>
@@ -179,7 +182,7 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>CMGDW7199M</t>
+    <t>CMGDW7888M</t>
   </si>
   <si>
     <t>sachin</t>
@@ -194,7 +197,7 @@
     <t>Male</t>
   </si>
   <si>
-    <t>956390787199</t>
+    <t>956390787888</t>
   </si>
   <si>
     <t>OBC</t>
@@ -236,7 +239,7 @@
     <t>400604</t>
   </si>
   <si>
-    <t>scfdvkscdscjrgvg99@maximusinfoeare.in</t>
+    <t>sc888@maximusinfoeare.in</t>
   </si>
   <si>
     <t>0221456321</t>
@@ -278,7 +281,7 @@
     <t>3.pdf</t>
   </si>
   <si>
-    <t>RP000199</t>
+    <t>RP000888</t>
   </si>
   <si>
     <t>48.12</t>
@@ -302,6 +305,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -310,6 +314,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -318,6 +323,7 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -326,6 +332,7 @@
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -333,6 +340,7 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -341,6 +349,7 @@
       <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -349,6 +358,7 @@
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -357,6 +367,7 @@
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -365,6 +376,7 @@
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -373,6 +385,7 @@
       <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -380,6 +393,7 @@
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -388,6 +402,7 @@
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -396,6 +411,7 @@
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -404,6 +420,7 @@
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -411,6 +428,7 @@
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -418,6 +436,7 @@
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -425,6 +444,7 @@
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -432,6 +452,7 @@
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -439,6 +460,7 @@
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -512,7 +534,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799951170384838"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -524,7 +546,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399945066682943"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -536,7 +558,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799951170384838"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -548,7 +570,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399945066682943"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -560,7 +582,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799951170384838"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -572,7 +594,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399945066682943"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -584,7 +606,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799951170384838"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -596,7 +618,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399945066682943"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -608,7 +630,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799951170384838"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -620,7 +642,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399945066682943"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -632,7 +654,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799951170384838"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -644,7 +666,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399945066682943"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1035,6 +1057,7 @@
     <mruColors>
       <color rgb="00800080"/>
       <color rgb="000000FF"/>
+      <color rgb="00FFFFFF"/>
       <color rgb="00FF0000"/>
       <color rgb="00000000"/>
     </mruColors>
@@ -1305,59 +1328,59 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AT2"/>
+  <dimension ref="A1:AU2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AT4" sqref="AT4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="2" width="13.5714285714286" customWidth="1"/>
     <col min="3" max="3" width="12.1428571428571" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.1428571428571" customWidth="1"/>
-    <col min="5" max="5" width="14.1428571428571" customWidth="1"/>
-    <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="7" max="7" width="14.4285714285714" customWidth="1"/>
-    <col min="8" max="8" width="14" customWidth="1"/>
-    <col min="9" max="9" width="13.4285714285714" customWidth="1"/>
-    <col min="10" max="10" width="19.5714285714286" customWidth="1"/>
-    <col min="11" max="11" width="15.5714285714286" customWidth="1"/>
-    <col min="12" max="12" width="15" customWidth="1"/>
-    <col min="13" max="13" width="21.8571428571429" customWidth="1"/>
-    <col min="14" max="14" width="14" customWidth="1"/>
-    <col min="15" max="15" width="15.1428571428571" customWidth="1"/>
-    <col min="16" max="16" width="12.4285714285714" customWidth="1"/>
-    <col min="17" max="17" width="17.7142857142857" customWidth="1"/>
-    <col min="18" max="18" width="17.4285714285714" customWidth="1"/>
-    <col min="19" max="19" width="14.2857142857143" customWidth="1"/>
-    <col min="20" max="20" width="12.8571428571429" customWidth="1"/>
-    <col min="21" max="21" width="21.8571428571429" customWidth="1"/>
-    <col min="22" max="22" width="13.2857142857143" customWidth="1"/>
-    <col min="23" max="23" width="14.4285714285714" customWidth="1"/>
-    <col min="24" max="24" width="36" customWidth="1"/>
-    <col min="25" max="25" width="11" customWidth="1"/>
-    <col min="26" max="26" width="13.4285714285714" customWidth="1"/>
-    <col min="27" max="28" width="15.1428571428571" customWidth="1"/>
-    <col min="29" max="29" width="13.4285714285714" customWidth="1"/>
-    <col min="30" max="30" width="12.8571428571429" customWidth="1"/>
-    <col min="31" max="31" width="12.5714285714286" customWidth="1"/>
-    <col min="33" max="33" width="13.5714285714286" customWidth="1"/>
-    <col min="34" max="34" width="15" customWidth="1"/>
-    <col min="35" max="35" width="16" customWidth="1"/>
-    <col min="36" max="36" width="16.8571428571429" customWidth="1"/>
-    <col min="37" max="37" width="17.8571428571429" customWidth="1"/>
-    <col min="38" max="38" width="18.7142857142857" customWidth="1"/>
-    <col min="39" max="39" width="32.2857142857143" customWidth="1"/>
-    <col min="40" max="40" width="18.8571428571429" customWidth="1"/>
-    <col min="41" max="41" width="24.2857142857143" customWidth="1"/>
-    <col min="42" max="42" width="20.2857142857143" customWidth="1"/>
-    <col min="43" max="43" width="25.7142857142857" customWidth="1"/>
-    <col min="44" max="44" width="26" customWidth="1"/>
-    <col min="45" max="46" width="27.7142857142857" customWidth="1"/>
+    <col min="4" max="5" width="12.1428571428571" customWidth="1"/>
+    <col min="6" max="6" width="14.1428571428571" customWidth="1"/>
+    <col min="7" max="7" width="14" customWidth="1"/>
+    <col min="8" max="8" width="14.4285714285714" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+    <col min="10" max="10" width="13.4285714285714" customWidth="1"/>
+    <col min="11" max="11" width="19.5714285714286" customWidth="1"/>
+    <col min="12" max="12" width="15.5714285714286" customWidth="1"/>
+    <col min="13" max="13" width="15" customWidth="1"/>
+    <col min="14" max="14" width="21.8571428571429" customWidth="1"/>
+    <col min="15" max="15" width="14" customWidth="1"/>
+    <col min="16" max="16" width="15.1428571428571" customWidth="1"/>
+    <col min="17" max="17" width="12.4285714285714" customWidth="1"/>
+    <col min="18" max="18" width="17.7142857142857" customWidth="1"/>
+    <col min="19" max="19" width="17.4285714285714" customWidth="1"/>
+    <col min="20" max="20" width="14.2857142857143" customWidth="1"/>
+    <col min="21" max="21" width="12.8571428571429" customWidth="1"/>
+    <col min="22" max="22" width="21.8571428571429" customWidth="1"/>
+    <col min="23" max="23" width="13.2857142857143" customWidth="1"/>
+    <col min="24" max="24" width="14.4285714285714" customWidth="1"/>
+    <col min="25" max="25" width="36" customWidth="1"/>
+    <col min="26" max="26" width="11" customWidth="1"/>
+    <col min="27" max="27" width="13.4285714285714" customWidth="1"/>
+    <col min="28" max="29" width="15.1428571428571" customWidth="1"/>
+    <col min="30" max="30" width="13.4285714285714" customWidth="1"/>
+    <col min="31" max="31" width="12.8571428571429" customWidth="1"/>
+    <col min="32" max="32" width="12.5714285714286" customWidth="1"/>
+    <col min="34" max="34" width="13.5714285714286" customWidth="1"/>
+    <col min="35" max="35" width="15" customWidth="1"/>
+    <col min="36" max="36" width="16" customWidth="1"/>
+    <col min="37" max="37" width="16.8571428571429" customWidth="1"/>
+    <col min="38" max="38" width="17.8571428571429" customWidth="1"/>
+    <col min="39" max="39" width="18.7142857142857" customWidth="1"/>
+    <col min="40" max="40" width="32.2857142857143" customWidth="1"/>
+    <col min="41" max="41" width="18.8571428571429" customWidth="1"/>
+    <col min="42" max="42" width="24.2857142857143" customWidth="1"/>
+    <col min="43" max="43" width="20.2857142857143" customWidth="1"/>
+    <col min="44" max="44" width="25.7142857142857" customWidth="1"/>
+    <col min="45" max="45" width="26" customWidth="1"/>
+    <col min="46" max="47" width="27.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46">
+    <row r="1" spans="1:47">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1370,10 +1393,10 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="5" t="s">
@@ -1385,10 +1408,10 @@
       <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="5" t="s">
@@ -1427,13 +1450,13 @@
       <c r="W1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="X1" s="5" t="s">
         <v>23</v>
       </c>
       <c r="Y1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="Z1" s="4" t="s">
         <v>25</v>
       </c>
       <c r="AA1" s="5" t="s">
@@ -1469,7 +1492,7 @@
       <c r="AK1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="12" t="s">
+      <c r="AL1" s="5" t="s">
         <v>37</v>
       </c>
       <c r="AM1" s="12" t="s">
@@ -1487,33 +1510,36 @@
       <c r="AQ1" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="15" t="s">
+      <c r="AR1" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="16" t="s">
+      <c r="AS1" s="15" t="s">
         <v>44</v>
       </c>
       <c r="AT1" s="16" t="s">
         <v>45</v>
       </c>
+      <c r="AU1" s="16" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="2" ht="16" customHeight="1" spans="1:46">
+    <row r="2" ht="16" customHeight="1" spans="1:47">
       <c r="A2" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="E2" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>50</v>
       </c>
       <c r="G2" s="9" t="s">
@@ -1525,10 +1551,10 @@
       <c r="I2" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="8" t="s">
         <v>55</v>
       </c>
       <c r="L2" s="9" t="s">
@@ -1555,10 +1581,10 @@
       <c r="S2" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="T2" t="s">
+      <c r="T2" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="U2" s="9" t="s">
+      <c r="U2" t="s">
         <v>65</v>
       </c>
       <c r="V2" s="9" t="s">
@@ -1567,14 +1593,14 @@
       <c r="W2" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="X2" s="10" t="s">
+      <c r="X2" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="Y2" s="11">
-        <v>9848001199</v>
-      </c>
-      <c r="Z2" s="9" t="s">
+      <c r="Y2" s="10" t="s">
         <v>69</v>
+      </c>
+      <c r="Z2" s="11">
+        <v>9848001888</v>
       </c>
       <c r="AA2" s="9" t="s">
         <v>70</v>
@@ -1583,24 +1609,24 @@
         <v>71</v>
       </c>
       <c r="AC2" s="9" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="AD2" s="9" t="s">
         <v>64</v>
       </c>
       <c r="AE2" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AF2" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AG2" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="AH2" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="AI2" s="9" t="s">
+      <c r="AH2" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI2" s="13" t="s">
         <v>73</v>
       </c>
       <c r="AJ2" s="9" t="s">
@@ -1609,7 +1635,7 @@
       <c r="AK2" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="AL2" s="14" t="s">
+      <c r="AL2" s="9" t="s">
         <v>76</v>
       </c>
       <c r="AM2" s="14" t="s">
@@ -1627,14 +1653,17 @@
       <c r="AQ2" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="AR2" s="17" t="s">
+      <c r="AR2" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="AS2" s="18" t="s">
+      <c r="AS2" s="17" t="s">
         <v>83</v>
       </c>
       <c r="AT2" s="18" t="s">
         <v>84</v>
+      </c>
+      <c r="AU2" s="18" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1642,25 +1671,25 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:B2">
       <formula1>"AIP00001,RP0001,VAK00001,SIL00001"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:D2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:E2">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2">
       <formula1>"Male,Female"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2">
       <formula1>"General,OBC,SC,ST"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2">
       <formula1>"Rural,Urban,Semi-Urban,Metropolitan"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AL2 AN2 AP2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM2 AO2 AQ2">
       <formula1>"Pancard,VoterId,Passport,Aadhaarcard,Drivinglicence"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="X2" r:id="rId1" display="scfdvkscdscjrgvg99@maximusinfoeare.in" tooltip="mailto:scfdvkscdscjrgvg99@maximusinfoeare.in"/>
-    <hyperlink ref="AH2" r:id="rId2" display="saefe@gmail.com" tooltip="mailto:saefe@gmail.com"/>
+    <hyperlink ref="Y2" r:id="rId1" display="sc888@maximusinfoeare.in" tooltip="mailto:sc888@maximusinfoeare.in"/>
+    <hyperlink ref="AI2" r:id="rId2" display="saefe@gmail.com" tooltip="mailto:saefe@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
